--- a/tests_cases/PE53 - TC - 03.xlsx
+++ b/tests_cases/PE53 - TC - 03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3F052-D9C6-47F2-BBD5-5FF1E949D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3643B-5291-4A16-B973-A02CBF9B0513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -235,9 +235,6 @@
     <t>TC-03.00</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Pre-requisites</t>
   </si>
   <si>
@@ -302,13 +299,16 @@
   </si>
   <si>
     <t>Se muestra por pantalla "Changed Successfully"</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +463,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -512,12 +519,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,6 +557,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -925,7 +931,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -933,8 +939,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -969,12 +976,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -984,9 +985,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,78 +998,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,114 +1046,23 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,128 +1080,59 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,12 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1390,8 +1177,226 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1759,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="A40:I76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="A73:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1773,547 +1778,547 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="92"/>
+      <c r="D1" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="95"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
-      <c r="I1" s="106"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="154"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="106"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="101">
         <v>0.1</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="106"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="106"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="107"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="63">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="62" t="s">
-        <v>76</v>
+      <c r="E6" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="106"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="63">
+      <c r="B7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="44" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="106"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="102"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="106"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="102"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="106"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="102"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="106"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="106"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="106"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="106"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="106"/>
+      <c r="B14" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="106"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="115" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="128"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="67"/>
+      <c r="G16" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="106"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="137" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="138"/>
-      <c r="I17" s="106"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122" t="s">
+      <c r="C18" s="118"/>
+      <c r="D18" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="139" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140">
+      <c r="A19" s="74">
         <v>1</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143" t="s">
+      <c r="E19" s="121"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76">
+        <v>2</v>
+      </c>
+      <c r="B20" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="144" t="s">
+      <c r="C20" s="106"/>
+      <c r="D20" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="144" t="s">
+      <c r="H20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="106"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>2</v>
-      </c>
-      <c r="B20" s="141" t="s">
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>3</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="108"/>
+      <c r="D21" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="106"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76">
+        <v>4</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="144" t="s">
+      <c r="E22" s="125"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="144" t="s">
+      <c r="H22" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="106"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140">
-        <v>3</v>
-      </c>
-      <c r="B21" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="144" t="s">
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77">
+        <v>5</v>
+      </c>
+      <c r="B23" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="106"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145">
-        <v>4</v>
-      </c>
-      <c r="B22" s="147" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="144" t="s">
+      <c r="H23" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77">
+        <v>6</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="144" t="s">
+      <c r="H24" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="106"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148">
-        <v>5</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="144" t="s">
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77">
+        <v>7</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="108"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="144" t="s">
+      <c r="H25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="106"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="148">
-        <v>6</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="106"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="148">
-        <v>7</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="106"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="106"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="149" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="149"/>
-      <c r="I28" s="106"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="106"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="106"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="106"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="106"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="106"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -2325,14 +2330,14 @@
       <c r="C40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="92"/>
+      <c r="D40" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="95"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="106"/>
+      <c r="I40" s="57"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2344,31 +2349,31 @@
       <c r="C41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="151"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="106"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="101">
         <v>0.1</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="106"/>
+      <c r="I42" s="57"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
@@ -2376,516 +2381,466 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="106"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="57"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="107"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="63">
+      <c r="D45" s="45">
         <v>1</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="42" t="s">
         <v>46</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="106"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>66</v>
+      <c r="B46" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="63">
+      <c r="D46" s="45">
         <v>2</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="42" t="s">
         <v>53</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="106"/>
+      <c r="I46" s="57"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63">
+      <c r="A47" s="45">
         <v>1</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="17"/>
-      <c r="D47" s="63">
+      <c r="D47" s="45">
         <v>3</v>
       </c>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="106"/>
+      <c r="I47" s="57"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
+      <c r="A48" s="45">
         <v>2</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="17"/>
-      <c r="D48" s="97">
+      <c r="D48" s="50">
         <v>4</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="43" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="106"/>
+      <c r="I48" s="57"/>
     </row>
     <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63">
+      <c r="A49" s="45">
         <v>3</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="17"/>
-      <c r="D49" s="97">
+      <c r="D49" s="50">
         <v>5</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="106"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63">
+      <c r="A50" s="45">
         <v>4</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="27">
+      <c r="D50" s="24">
         <v>6</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="106"/>
+      <c r="I50" s="57"/>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="27">
+      <c r="D51" s="24">
         <v>7</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="44" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="106"/>
+      <c r="I51" s="57"/>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="27">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24">
         <v>8</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E52" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="106"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="57"/>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="27">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24">
         <v>9</v>
       </c>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="106"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="106"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="57"/>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="106"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="57"/>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="106"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="57"/>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="155"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="142"/>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="153"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="57"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="133"/>
+      <c r="D59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="146"/>
+      <c r="I59" s="57"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="148"/>
+      <c r="I60" s="57"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="135"/>
+      <c r="D61" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="137"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47">
+        <v>1</v>
+      </c>
+      <c r="B62" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="131"/>
+      <c r="D62" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="139"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="165">
+        <v>2</v>
+      </c>
+      <c r="B63" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="106"/>
-    </row>
-    <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="106"/>
-    </row>
-    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="74"/>
-      <c r="I59" s="106"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="106"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="106"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="79">
-        <v>1</v>
-      </c>
-      <c r="B62" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="67" t="s">
+      <c r="C63" s="141"/>
+      <c r="D63" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="141"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="67" t="s">
+      <c r="H63" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="106"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="80">
-        <v>2</v>
-      </c>
-      <c r="B63" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="86"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="67" t="s">
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47">
+        <v>3</v>
+      </c>
+      <c r="B64" s="139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="139"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="H63" s="67" t="s">
+      <c r="H64" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="106"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
-      <c r="B64" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="I64" s="106"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="106"/>
+      <c r="A65" s="159"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="57"/>
     </row>
     <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="94"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="162"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="106"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="57"/>
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="46"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="106"/>
+      <c r="G67" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="149"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="106"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="57"/>
     </row>
     <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="106"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="57"/>
     </row>
     <row r="70" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="106"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="57"/>
     </row>
     <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="99"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="68"/>
-      <c r="I71" s="106"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="106"/>
-    </row>
-    <row r="73" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="106"/>
-    </row>
-    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="104"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="106"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="104"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="106"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="104"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="106"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
+  <mergeCells count="84">
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G70:H70"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
@@ -2895,19 +2850,13 @@
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G67:H67"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="B66:C66"/>
@@ -2915,7 +2864,12 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G28:H28"/>
@@ -2923,8 +2877,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:C29"/>
@@ -2943,6 +2895,8 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B18:C18"/>
@@ -2960,6 +2914,7 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
